--- a/Auto_Roll_Call_System/User_DATA/links.xlsx
+++ b/Auto_Roll_Call_System/User_DATA/links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric2\Desktop\學習歷程專案\Auto_Roll_Call_System\User_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric2\Desktop\HighSchool-Project\Auto_Roll_Call_System\User_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80BD386-278E-4B18-9D4F-32BE6E13C472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8273E38-C983-496B-B42C-BFDA7E3797B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -429,7 +429,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -445,7 +445,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -453,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -461,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -469,7 +469,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -477,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -525,7 +525,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -533,7 +533,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -541,7 +541,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
